--- a/staticfiles/نمونه اکسل مشخصات.xlsx
+++ b/staticfiles/نمونه اکسل مشخصات.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammadreza\Desktop\Me\Projects\sana_asansaz_bot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammadreza\Desktop\Projects\sana_asansaz_bot\staticfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B0E201-F0E0-4CB1-BFC0-150D0B589C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3026136-EDBD-49EE-B766-EE97EB370A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="3465" windowWidth="28800" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه ۱" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>نام و نام خانوادگی</t>
   </si>
@@ -45,9 +56,6 @@
     <t>تاریخ تنظیم</t>
   </si>
   <si>
-    <t>ردیف</t>
-  </si>
-  <si>
     <t>نوع لایحه</t>
   </si>
   <si>
@@ -55,13 +63,25 @@
   </si>
   <si>
     <t>شماره بایگانی / پرونده</t>
+  </si>
+  <si>
+    <t>مخاطب ثنا</t>
+  </si>
+  <si>
+    <t>سابا</t>
+  </si>
+  <si>
+    <t>ساتا</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +94,12 @@
       <color theme="1"/>
       <name val="B Yekan"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,9 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,63 +407,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="5.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{01E95B5A-E9B2-4106-99F9-9AD4D6F266FE}">
+      <formula1>$N$2:$N$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>